--- a/Code/Results/Cases/Case_2_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9939126449435133</v>
+        <v>1.030600518318875</v>
       </c>
       <c r="D2">
-        <v>1.014904847364817</v>
+        <v>1.03709337814674</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.014687085609919</v>
+        <v>1.04448852808006</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040784322232406</v>
+        <v>1.032170972291224</v>
       </c>
       <c r="J2">
-        <v>1.016276964801919</v>
+        <v>1.035740866140009</v>
       </c>
       <c r="K2">
-        <v>1.026160367054671</v>
+        <v>1.039885246867717</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.025945528893495</v>
+        <v>1.047259436336952</v>
       </c>
       <c r="N2">
-        <v>1.009047384151232</v>
+        <v>1.015849709895317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9994437067762544</v>
+        <v>1.031743181901406</v>
       </c>
       <c r="D3">
-        <v>1.018974311716981</v>
+        <v>1.037951745522706</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.01959149268204</v>
+        <v>1.04555536072421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042035243955771</v>
+        <v>1.032357850114595</v>
       </c>
       <c r="J3">
-        <v>1.019949548402458</v>
+        <v>1.036524066865788</v>
       </c>
       <c r="K3">
-        <v>1.029370035199486</v>
+        <v>1.040553222017691</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.029979686381924</v>
+        <v>1.048136850418953</v>
       </c>
       <c r="N3">
-        <v>1.010303598930696</v>
+        <v>1.016113922389645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002936546389072</v>
+        <v>1.032482367351502</v>
       </c>
       <c r="D4">
-        <v>1.021546887705226</v>
+        <v>1.038506845874865</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.022694822221318</v>
+        <v>1.046245789504864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042813717542323</v>
+        <v>1.032477263897701</v>
       </c>
       <c r="J4">
-        <v>1.02226543213364</v>
+        <v>1.037030140089224</v>
       </c>
       <c r="K4">
-        <v>1.031392034175166</v>
+        <v>1.040984487503197</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.032526844553654</v>
+        <v>1.048704116825061</v>
       </c>
       <c r="N4">
-        <v>1.011095218834795</v>
+        <v>1.016284520699327</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004385201194396</v>
+        <v>1.032793075585139</v>
       </c>
       <c r="D5">
-        <v>1.022614436019427</v>
+        <v>1.038740133289622</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.023983349481773</v>
+        <v>1.046536074035559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043133782667845</v>
+        <v>1.03252710422103</v>
       </c>
       <c r="J5">
-        <v>1.02322509627081</v>
+        <v>1.037242723728576</v>
       </c>
       <c r="K5">
-        <v>1.032229420636454</v>
+        <v>1.041165562063588</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.033583117285416</v>
+        <v>1.048942481188203</v>
       </c>
       <c r="N5">
-        <v>1.011423118189873</v>
+        <v>1.016356152953226</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004627304123387</v>
+        <v>1.032845242241062</v>
       </c>
       <c r="D6">
-        <v>1.022792878810678</v>
+        <v>1.038779298771329</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.024198773091696</v>
+        <v>1.046584815752911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043187106242791</v>
+        <v>1.032535451446281</v>
       </c>
       <c r="J6">
-        <v>1.023385426574213</v>
+        <v>1.037278407527539</v>
       </c>
       <c r="K6">
-        <v>1.032369292259527</v>
+        <v>1.041195951828642</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.033759632977651</v>
+        <v>1.048982496911312</v>
       </c>
       <c r="N6">
-        <v>1.011477891930632</v>
+        <v>1.016368175207937</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002955979801053</v>
+        <v>1.032486519226758</v>
       </c>
       <c r="D7">
-        <v>1.021561206491664</v>
+        <v>1.038509963374382</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.022712102024433</v>
+        <v>1.04624966818948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042818022316119</v>
+        <v>1.032477931286002</v>
       </c>
       <c r="J7">
-        <v>1.022278309250421</v>
+        <v>1.037032981307871</v>
       </c>
       <c r="K7">
-        <v>1.031403272519859</v>
+        <v>1.040986907931725</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.03254101496057</v>
+        <v>1.048707302310652</v>
       </c>
       <c r="N7">
-        <v>1.011099619248479</v>
+        <v>1.016285478195859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9958002766139391</v>
+        <v>1.030986727770101</v>
       </c>
       <c r="D8">
-        <v>1.01629304245354</v>
+        <v>1.03738353383967</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.016359501539331</v>
+        <v>1.044849045196679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041213614934229</v>
+        <v>1.032234440873709</v>
       </c>
       <c r="J8">
-        <v>1.017531009305177</v>
+        <v>1.036005699769019</v>
       </c>
       <c r="K8">
-        <v>1.027256745820367</v>
+        <v>1.040111190883766</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.027322340534054</v>
+        <v>1.04755606192077</v>
       </c>
       <c r="N8">
-        <v>1.009476440428879</v>
+        <v>1.015939077329283</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9824885810170609</v>
+        <v>1.028342362038526</v>
       </c>
       <c r="D9">
-        <v>1.006518673637667</v>
+        <v>1.035396163278834</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.004595255337744</v>
+        <v>1.04238184709577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038139391714981</v>
+        <v>1.031793827151251</v>
       </c>
       <c r="J9">
-        <v>1.008675236860829</v>
+        <v>1.034190040475406</v>
       </c>
       <c r="K9">
-        <v>1.019506867897378</v>
+        <v>1.038560712108576</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.017614215108473</v>
+        <v>1.045523746051347</v>
       </c>
       <c r="N9">
-        <v>1.006444559182511</v>
+        <v>1.015325877169126</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9730767396132822</v>
+        <v>1.026578337591317</v>
       </c>
       <c r="D10">
-        <v>0.9996316277458062</v>
+        <v>1.034069591982118</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9963192506858435</v>
+        <v>1.040737614229483</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035908666785814</v>
+        <v>1.031492318917747</v>
       </c>
       <c r="J10">
-        <v>1.002400827962343</v>
+        <v>1.032975900611369</v>
       </c>
       <c r="K10">
-        <v>1.014007536454252</v>
+        <v>1.03752210188491</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.010755281740171</v>
+        <v>1.044166370827932</v>
       </c>
       <c r="N10">
-        <v>1.004294245233482</v>
+        <v>1.014915190415995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9688575881121276</v>
+        <v>1.025814213214334</v>
       </c>
       <c r="D11">
-        <v>0.9965514383314789</v>
+        <v>1.03349477665957</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9926205232647826</v>
+        <v>1.040025770902133</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034895977347467</v>
+        <v>1.031359920475243</v>
       </c>
       <c r="J11">
-        <v>0.9995858746593552</v>
+        <v>1.032449279317296</v>
       </c>
       <c r="K11">
-        <v>1.011538683831274</v>
+        <v>1.037071192408901</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.007682960558864</v>
+        <v>1.043578014134873</v>
       </c>
       <c r="N11">
-        <v>1.00332912007011</v>
+        <v>1.014736909423104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9672672710760288</v>
+        <v>1.025530338140027</v>
       </c>
       <c r="D12">
-        <v>0.9953916392696944</v>
+        <v>1.033281204080355</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9912281834880746</v>
+        <v>1.039761377995992</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034512436679135</v>
+        <v>1.031310464774749</v>
       </c>
       <c r="J12">
-        <v>0.9985245784226771</v>
+        <v>1.032253534138298</v>
       </c>
       <c r="K12">
-        <v>1.010607663982484</v>
+        <v>1.036903526172632</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.006525389558985</v>
+        <v>1.043359380871759</v>
       </c>
       <c r="N12">
-        <v>1.002965196561938</v>
+        <v>1.014670619999527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9676094727241144</v>
+        <v>1.02559123238192</v>
       </c>
       <c r="D13">
-        <v>0.9956411458006592</v>
+        <v>1.033327018869593</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9915277006751354</v>
+        <v>1.039818090395449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034595047609405</v>
+        <v>1.031321085727533</v>
       </c>
       <c r="J13">
-        <v>0.9987529567844755</v>
+        <v>1.032295528246088</v>
       </c>
       <c r="K13">
-        <v>1.01080801736085</v>
+        <v>1.036939499228627</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.006774450416834</v>
+        <v>1.043406282594283</v>
       </c>
       <c r="N13">
-        <v>1.003043510727494</v>
+        <v>1.014684842382555</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9687266133887867</v>
+        <v>1.025790748945035</v>
       </c>
       <c r="D14">
-        <v>0.9964558946231006</v>
+        <v>1.033477123921007</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9925058158751431</v>
+        <v>1.040003915751026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034864426534642</v>
+        <v>1.031355838103258</v>
       </c>
       <c r="J14">
-        <v>0.9994984736644787</v>
+        <v>1.0324331017096</v>
       </c>
       <c r="K14">
-        <v>1.011462015572338</v>
+        <v>1.037057336706956</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.007587615486092</v>
+        <v>1.04355994370901</v>
       </c>
       <c r="N14">
-        <v>1.00329915083375</v>
+        <v>1.014731431305364</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9694118063961703</v>
+        <v>1.025913671637422</v>
       </c>
       <c r="D15">
-        <v>0.99695578076445</v>
+        <v>1.033569600561477</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9931059811288121</v>
+        <v>1.040118411170878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03502941030437</v>
+        <v>1.031377213478272</v>
       </c>
       <c r="J15">
-        <v>0.9999557009767372</v>
+        <v>1.032517847404617</v>
       </c>
       <c r="K15">
-        <v>1.011863087553144</v>
+        <v>1.037129916616206</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.008086432273309</v>
+        <v>1.043654607264862</v>
       </c>
       <c r="N15">
-        <v>1.003455929103439</v>
+        <v>1.01476012727223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9733535938858356</v>
+        <v>1.026629043754353</v>
       </c>
       <c r="D16">
-        <v>0.999833904880423</v>
+        <v>1.03410773210378</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9965621995401173</v>
+        <v>1.040784859404392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035974860585778</v>
+        <v>1.031501066921838</v>
       </c>
       <c r="J16">
-        <v>1.002585500481318</v>
+        <v>1.033010831900875</v>
       </c>
       <c r="K16">
-        <v>1.014169472308396</v>
+        <v>1.037552002270653</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.01095694202384</v>
+        <v>1.044205405341099</v>
       </c>
       <c r="N16">
-        <v>1.004357553789007</v>
+        <v>1.014927012822733</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9757866423929067</v>
+        <v>1.027077698927271</v>
       </c>
       <c r="D17">
-        <v>1.001612381126137</v>
+        <v>1.034445180181926</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9986985707617876</v>
+        <v>1.041202936517049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036555153312534</v>
+        <v>1.031578263334675</v>
       </c>
       <c r="J17">
-        <v>1.004208191276581</v>
+        <v>1.033319829043498</v>
       </c>
       <c r="K17">
-        <v>1.01559219840077</v>
+        <v>1.037816448046458</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.012729457290238</v>
+        <v>1.04455074421717</v>
       </c>
       <c r="N17">
-        <v>1.004913791920377</v>
+        <v>1.015031574869881</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9771920386413273</v>
+        <v>1.027339364015654</v>
       </c>
       <c r="D18">
-        <v>1.002640343890456</v>
+        <v>1.034641969247473</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9999336524788868</v>
+        <v>1.041446805481976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036889141222802</v>
+        <v>1.031623112841199</v>
       </c>
       <c r="J18">
-        <v>1.005145284132267</v>
+        <v>1.033499975958671</v>
       </c>
       <c r="K18">
-        <v>1.016413656669979</v>
+        <v>1.037970580546077</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.013753531265729</v>
+        <v>1.044752116279176</v>
       </c>
       <c r="N18">
-        <v>1.005234976475007</v>
+        <v>1.015092520647981</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.977668952935155</v>
+        <v>1.027428580369887</v>
       </c>
       <c r="D19">
-        <v>1.002989286957154</v>
+        <v>1.034709062679986</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.000352946699939</v>
+        <v>1.041529960494995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03700227168354</v>
+        <v>1.031638375198892</v>
       </c>
       <c r="J19">
-        <v>1.005463242725517</v>
+        <v>1.033561386855956</v>
       </c>
       <c r="K19">
-        <v>1.016692352579701</v>
+        <v>1.038023116380236</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.014101079869969</v>
+        <v>1.044820769084588</v>
       </c>
       <c r="N19">
-        <v>1.005343948482891</v>
+        <v>1.015113294211259</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9755270332097709</v>
+        <v>1.027029565369134</v>
       </c>
       <c r="D20">
-        <v>1.001422545534038</v>
+        <v>1.034408979200537</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9984705070649668</v>
+        <v>1.041158079598349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036493359978526</v>
+        <v>1.031569999287024</v>
       </c>
       <c r="J20">
-        <v>1.00403507036291</v>
+        <v>1.033286685463781</v>
       </c>
       <c r="K20">
-        <v>1.01544042722948</v>
+        <v>1.03778808733756</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.012540304183895</v>
+        <v>1.044513698654516</v>
       </c>
       <c r="N20">
-        <v>1.004854452231156</v>
+        <v>1.015020360851912</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9683982950586857</v>
+        <v>1.02573199755276</v>
       </c>
       <c r="D21">
-        <v>0.9962164122784134</v>
+        <v>1.033432923399229</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9922183050188521</v>
+        <v>1.039949194340543</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034785307975971</v>
+        <v>1.031345612042619</v>
       </c>
       <c r="J21">
-        <v>0.9992793789985787</v>
+        <v>1.032392593474801</v>
       </c>
       <c r="K21">
-        <v>1.011269822191797</v>
+        <v>1.037022641434316</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.007348619099947</v>
+        <v>1.043514696868354</v>
       </c>
       <c r="N21">
-        <v>1.003224023900398</v>
+        <v>1.014717713905305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9637814442091958</v>
+        <v>1.02491590248975</v>
       </c>
       <c r="D22">
-        <v>0.9928518587107581</v>
+        <v>1.032818887758056</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9881797922419067</v>
+        <v>1.03918922053135</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0336684730582</v>
+        <v>1.031202928062783</v>
       </c>
       <c r="J22">
-        <v>0.9961979257058318</v>
+        <v>1.031829663321579</v>
       </c>
       <c r="K22">
-        <v>1.008566264236959</v>
+        <v>1.036540342941994</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.003989103668623</v>
+        <v>1.042886055732805</v>
       </c>
       <c r="N22">
-        <v>1.002167293673844</v>
+        <v>1.014527034675364</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9662422473839082</v>
+        <v>1.025348555379861</v>
       </c>
       <c r="D23">
-        <v>0.9946444612476556</v>
+        <v>1.033144433005657</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9903312920441441</v>
+        <v>1.039592087745303</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034264723757157</v>
+        <v>1.031278719494047</v>
       </c>
       <c r="J23">
-        <v>0.9978404666394297</v>
+        <v>1.032128157345748</v>
       </c>
       <c r="K23">
-        <v>1.010007473421622</v>
+        <v>1.036796116493217</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.005779436252284</v>
+        <v>1.043219360646014</v>
       </c>
       <c r="N23">
-        <v>1.002730598273969</v>
+        <v>1.014628154663105</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9756443818331625</v>
+        <v>1.027051314937846</v>
       </c>
       <c r="D24">
-        <v>1.001508353022165</v>
+        <v>1.034425336985115</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9985735932251006</v>
+        <v>1.041178348472756</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036521295566225</v>
+        <v>1.031573734003899</v>
       </c>
       <c r="J24">
-        <v>1.004113325215181</v>
+        <v>1.03330166188591</v>
       </c>
       <c r="K24">
-        <v>1.015509031968037</v>
+        <v>1.037800902673928</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.012625804555187</v>
+        <v>1.044530438129427</v>
       </c>
       <c r="N24">
-        <v>1.004881275332359</v>
+        <v>1.01502542811824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9860195833096381</v>
+        <v>1.029026184616443</v>
       </c>
       <c r="D25">
-        <v>1.009107766037464</v>
+        <v>1.035910237969554</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.00770904580671</v>
+        <v>1.043019575366228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038964911217592</v>
+        <v>1.031909105229971</v>
       </c>
       <c r="J25">
-        <v>1.01102678146618</v>
+        <v>1.034660081866403</v>
       </c>
       <c r="K25">
-        <v>1.021566321985993</v>
+        <v>1.038962420846856</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.020188855991672</v>
+        <v>1.046049587102269</v>
       </c>
       <c r="N25">
-        <v>1.007250050375398</v>
+        <v>1.015484736215876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030600518318875</v>
+        <v>0.9939126449435124</v>
       </c>
       <c r="D2">
-        <v>1.03709337814674</v>
+        <v>1.014904847364816</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.04448852808006</v>
+        <v>1.014687085609918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032170972291224</v>
+        <v>1.040784322232406</v>
       </c>
       <c r="J2">
-        <v>1.035740866140009</v>
+        <v>1.016276964801918</v>
       </c>
       <c r="K2">
-        <v>1.039885246867717</v>
+        <v>1.02616036705467</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.047259436336952</v>
+        <v>1.025945528893494</v>
       </c>
       <c r="N2">
-        <v>1.015849709895317</v>
+        <v>1.009047384151232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031743181901406</v>
+        <v>0.9994437067762529</v>
       </c>
       <c r="D3">
-        <v>1.037951745522706</v>
+        <v>1.01897431171698</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.04555536072421</v>
+        <v>1.019591492682039</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032357850114595</v>
+        <v>1.042035243955771</v>
       </c>
       <c r="J3">
-        <v>1.036524066865788</v>
+        <v>1.019949548402457</v>
       </c>
       <c r="K3">
-        <v>1.040553222017691</v>
+        <v>1.029370035199485</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048136850418953</v>
+        <v>1.029979686381923</v>
       </c>
       <c r="N3">
-        <v>1.016113922389645</v>
+        <v>1.010303598930695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032482367351502</v>
+        <v>1.002936546389072</v>
       </c>
       <c r="D4">
-        <v>1.038506845874865</v>
+        <v>1.021546887705226</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.046245789504864</v>
+        <v>1.022694822221318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032477263897701</v>
+        <v>1.042813717542324</v>
       </c>
       <c r="J4">
-        <v>1.037030140089224</v>
+        <v>1.022265432133641</v>
       </c>
       <c r="K4">
-        <v>1.040984487503197</v>
+        <v>1.031392034175166</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.048704116825061</v>
+        <v>1.032526844553654</v>
       </c>
       <c r="N4">
-        <v>1.016284520699327</v>
+        <v>1.011095218834795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032793075585139</v>
+        <v>1.004385201194397</v>
       </c>
       <c r="D5">
-        <v>1.038740133289622</v>
+        <v>1.022614436019427</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.046536074035559</v>
+        <v>1.023983349481774</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03252710422103</v>
+        <v>1.043133782667845</v>
       </c>
       <c r="J5">
-        <v>1.037242723728576</v>
+        <v>1.02322509627081</v>
       </c>
       <c r="K5">
-        <v>1.041165562063588</v>
+        <v>1.032229420636454</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.048942481188203</v>
+        <v>1.033583117285416</v>
       </c>
       <c r="N5">
-        <v>1.016356152953226</v>
+        <v>1.011423118189874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032845242241062</v>
+        <v>1.004627304123386</v>
       </c>
       <c r="D6">
-        <v>1.038779298771329</v>
+        <v>1.022792878810677</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.046584815752911</v>
+        <v>1.024198773091695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032535451446281</v>
+        <v>1.043187106242791</v>
       </c>
       <c r="J6">
-        <v>1.037278407527539</v>
+        <v>1.023385426574212</v>
       </c>
       <c r="K6">
-        <v>1.041195951828642</v>
+        <v>1.032369292259526</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.048982496911312</v>
+        <v>1.03375963297765</v>
       </c>
       <c r="N6">
-        <v>1.016368175207937</v>
+        <v>1.011477891930632</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032486519226758</v>
+        <v>1.002955979801054</v>
       </c>
       <c r="D7">
-        <v>1.038509963374382</v>
+        <v>1.021561206491665</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.04624966818948</v>
+        <v>1.022712102024434</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032477931286002</v>
+        <v>1.042818022316119</v>
       </c>
       <c r="J7">
-        <v>1.037032981307871</v>
+        <v>1.022278309250422</v>
       </c>
       <c r="K7">
-        <v>1.040986907931725</v>
+        <v>1.031403272519859</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048707302310652</v>
+        <v>1.032541014960572</v>
       </c>
       <c r="N7">
-        <v>1.016285478195859</v>
+        <v>1.011099619248479</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030986727770101</v>
+        <v>0.9958002766139393</v>
       </c>
       <c r="D8">
-        <v>1.03738353383967</v>
+        <v>1.01629304245354</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044849045196679</v>
+        <v>1.016359501539331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032234440873709</v>
+        <v>1.041213614934229</v>
       </c>
       <c r="J8">
-        <v>1.036005699769019</v>
+        <v>1.017531009305177</v>
       </c>
       <c r="K8">
-        <v>1.040111190883766</v>
+        <v>1.027256745820367</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04755606192077</v>
+        <v>1.027322340534054</v>
       </c>
       <c r="N8">
-        <v>1.015939077329283</v>
+        <v>1.009476440428879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028342362038526</v>
+        <v>0.9824885810170616</v>
       </c>
       <c r="D9">
-        <v>1.035396163278834</v>
+        <v>1.006518673637667</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.04238184709577</v>
+        <v>1.004595255337744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031793827151251</v>
+        <v>1.038139391714981</v>
       </c>
       <c r="J9">
-        <v>1.034190040475406</v>
+        <v>1.008675236860829</v>
       </c>
       <c r="K9">
-        <v>1.038560712108576</v>
+        <v>1.019506867897379</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.045523746051347</v>
+        <v>1.017614215108473</v>
       </c>
       <c r="N9">
-        <v>1.015325877169126</v>
+        <v>1.006444559182511</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026578337591317</v>
+        <v>0.9730767396132834</v>
       </c>
       <c r="D10">
-        <v>1.034069591982118</v>
+        <v>0.9996316277458072</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.040737614229483</v>
+        <v>0.9963192506858449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031492318917747</v>
+        <v>1.035908666785814</v>
       </c>
       <c r="J10">
-        <v>1.032975900611369</v>
+        <v>1.002400827962344</v>
       </c>
       <c r="K10">
-        <v>1.03752210188491</v>
+        <v>1.014007536454252</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.044166370827932</v>
+        <v>1.010755281740173</v>
       </c>
       <c r="N10">
-        <v>1.014915190415995</v>
+        <v>1.004294245233482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025814213214334</v>
+        <v>0.968857588112127</v>
       </c>
       <c r="D11">
-        <v>1.03349477665957</v>
+        <v>0.9965514383314781</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.040025770902133</v>
+        <v>0.9926205232647816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031359920475243</v>
+        <v>1.034895977347467</v>
       </c>
       <c r="J11">
-        <v>1.032449279317296</v>
+        <v>0.9995858746593547</v>
       </c>
       <c r="K11">
-        <v>1.037071192408901</v>
+        <v>1.011538683831273</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.043578014134873</v>
+        <v>1.007682960558863</v>
       </c>
       <c r="N11">
-        <v>1.014736909423104</v>
+        <v>1.00332912007011</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025530338140027</v>
+        <v>0.9672672710760285</v>
       </c>
       <c r="D12">
-        <v>1.033281204080355</v>
+        <v>0.9953916392696945</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.039761377995992</v>
+        <v>0.9912281834880744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031310464774749</v>
+        <v>1.034512436679135</v>
       </c>
       <c r="J12">
-        <v>1.032253534138298</v>
+        <v>0.9985245784226769</v>
       </c>
       <c r="K12">
-        <v>1.036903526172632</v>
+        <v>1.010607663982484</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.043359380871759</v>
+        <v>1.006525389558984</v>
       </c>
       <c r="N12">
-        <v>1.014670619999527</v>
+        <v>1.002965196561938</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02559123238192</v>
+        <v>0.9676094727241159</v>
       </c>
       <c r="D13">
-        <v>1.033327018869593</v>
+        <v>0.9956411458006605</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.039818090395449</v>
+        <v>0.9915277006751368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031321085727533</v>
+        <v>1.034595047609406</v>
       </c>
       <c r="J13">
-        <v>1.032295528246088</v>
+        <v>0.998752956784477</v>
       </c>
       <c r="K13">
-        <v>1.036939499228627</v>
+        <v>1.010808017360852</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.043406282594283</v>
+        <v>1.006774450416835</v>
       </c>
       <c r="N13">
-        <v>1.014684842382555</v>
+        <v>1.003043510727495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025790748945035</v>
+        <v>0.9687266133887881</v>
       </c>
       <c r="D14">
-        <v>1.033477123921007</v>
+        <v>0.9964558946231018</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.040003915751026</v>
+        <v>0.9925058158751446</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031355838103258</v>
+        <v>1.034864426534643</v>
       </c>
       <c r="J14">
-        <v>1.0324331017096</v>
+        <v>0.99949847366448</v>
       </c>
       <c r="K14">
-        <v>1.037057336706956</v>
+        <v>1.01146201557234</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.04355994370901</v>
+        <v>1.007587615486093</v>
       </c>
       <c r="N14">
-        <v>1.014731431305364</v>
+        <v>1.00329915083375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025913671637422</v>
+        <v>0.9694118063961711</v>
       </c>
       <c r="D15">
-        <v>1.033569600561477</v>
+        <v>0.996955780764451</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.040118411170878</v>
+        <v>0.9931059811288129</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031377213478272</v>
+        <v>1.035029410304371</v>
       </c>
       <c r="J15">
-        <v>1.032517847404617</v>
+        <v>0.9999557009767378</v>
       </c>
       <c r="K15">
-        <v>1.037129916616206</v>
+        <v>1.011863087553145</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.043654607264862</v>
+        <v>1.00808643227331</v>
       </c>
       <c r="N15">
-        <v>1.01476012727223</v>
+        <v>1.00345592910344</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026629043754353</v>
+        <v>0.9733535938858369</v>
       </c>
       <c r="D16">
-        <v>1.03410773210378</v>
+        <v>0.999833904880424</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.040784859404392</v>
+        <v>0.9965621995401184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031501066921838</v>
+        <v>1.035974860585778</v>
       </c>
       <c r="J16">
-        <v>1.033010831900875</v>
+        <v>1.002585500481319</v>
       </c>
       <c r="K16">
-        <v>1.037552002270653</v>
+        <v>1.014169472308397</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.044205405341099</v>
+        <v>1.010956942023842</v>
       </c>
       <c r="N16">
-        <v>1.014927012822733</v>
+        <v>1.004357553789007</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027077698927271</v>
+        <v>0.9757866423929076</v>
       </c>
       <c r="D17">
-        <v>1.034445180181926</v>
+        <v>1.001612381126137</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.041202936517049</v>
+        <v>0.9986985707617884</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031578263334675</v>
+        <v>1.036555153312535</v>
       </c>
       <c r="J17">
-        <v>1.033319829043498</v>
+        <v>1.004208191276582</v>
       </c>
       <c r="K17">
-        <v>1.037816448046458</v>
+        <v>1.015592198400771</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.04455074421717</v>
+        <v>1.012729457290239</v>
       </c>
       <c r="N17">
-        <v>1.015031574869881</v>
+        <v>1.004913791920377</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027339364015654</v>
+        <v>0.9771920386413264</v>
       </c>
       <c r="D18">
-        <v>1.034641969247473</v>
+        <v>1.002640343890456</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.041446805481976</v>
+        <v>0.9999336524788864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031623112841199</v>
+        <v>1.036889141222801</v>
       </c>
       <c r="J18">
-        <v>1.033499975958671</v>
+        <v>1.005145284132266</v>
       </c>
       <c r="K18">
-        <v>1.037970580546077</v>
+        <v>1.016413656669978</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.044752116279176</v>
+        <v>1.013753531265729</v>
       </c>
       <c r="N18">
-        <v>1.015092520647981</v>
+        <v>1.005234976475007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027428580369887</v>
+        <v>0.977668952935156</v>
       </c>
       <c r="D19">
-        <v>1.034709062679986</v>
+        <v>1.002989286957154</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.041529960494995</v>
+        <v>1.000352946699939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031638375198892</v>
+        <v>1.03700227168354</v>
       </c>
       <c r="J19">
-        <v>1.033561386855956</v>
+        <v>1.005463242725518</v>
       </c>
       <c r="K19">
-        <v>1.038023116380236</v>
+        <v>1.016692352579702</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.044820769084588</v>
+        <v>1.014101079869969</v>
       </c>
       <c r="N19">
-        <v>1.015113294211259</v>
+        <v>1.005343948482891</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027029565369134</v>
+        <v>0.9755270332097715</v>
       </c>
       <c r="D20">
-        <v>1.034408979200537</v>
+        <v>1.001422545534039</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.041158079598349</v>
+        <v>0.9984705070649673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031569999287024</v>
+        <v>1.036493359978526</v>
       </c>
       <c r="J20">
-        <v>1.033286685463781</v>
+        <v>1.004035070362911</v>
       </c>
       <c r="K20">
-        <v>1.03778808733756</v>
+        <v>1.01544042722948</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.044513698654516</v>
+        <v>1.012540304183895</v>
       </c>
       <c r="N20">
-        <v>1.015020360851912</v>
+        <v>1.004854452231156</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02573199755276</v>
+        <v>0.9683982950586868</v>
       </c>
       <c r="D21">
-        <v>1.033432923399229</v>
+        <v>0.9962164122784145</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.039949194340543</v>
+        <v>0.9922183050188533</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031345612042619</v>
+        <v>1.034785307975971</v>
       </c>
       <c r="J21">
-        <v>1.032392593474801</v>
+        <v>0.9992793789985798</v>
       </c>
       <c r="K21">
-        <v>1.037022641434316</v>
+        <v>1.011269822191798</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.043514696868354</v>
+        <v>1.007348619099949</v>
       </c>
       <c r="N21">
-        <v>1.014717713905305</v>
+        <v>1.003224023900399</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02491590248975</v>
+        <v>0.9637814442091959</v>
       </c>
       <c r="D22">
-        <v>1.032818887758056</v>
+        <v>0.9928518587107581</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.03918922053135</v>
+        <v>0.9881797922419061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031202928062783</v>
+        <v>1.0336684730582</v>
       </c>
       <c r="J22">
-        <v>1.031829663321579</v>
+        <v>0.9961979257058317</v>
       </c>
       <c r="K22">
-        <v>1.036540342941994</v>
+        <v>1.008566264236959</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.042886055732805</v>
+        <v>1.003989103668622</v>
       </c>
       <c r="N22">
-        <v>1.014527034675364</v>
+        <v>1.002167293673844</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025348555379861</v>
+        <v>0.9662422473839078</v>
       </c>
       <c r="D23">
-        <v>1.033144433005657</v>
+        <v>0.9946444612476554</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.039592087745303</v>
+        <v>0.9903312920441442</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031278719494047</v>
+        <v>1.034264723757156</v>
       </c>
       <c r="J23">
-        <v>1.032128157345748</v>
+        <v>0.9978404666394294</v>
       </c>
       <c r="K23">
-        <v>1.036796116493217</v>
+        <v>1.010007473421622</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.043219360646014</v>
+        <v>1.005779436252284</v>
       </c>
       <c r="N23">
-        <v>1.014628154663105</v>
+        <v>1.002730598273969</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027051314937846</v>
+        <v>0.9756443818331628</v>
       </c>
       <c r="D24">
-        <v>1.034425336985115</v>
+        <v>1.001508353022165</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.041178348472756</v>
+        <v>0.9985735932251006</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031573734003899</v>
+        <v>1.036521295566225</v>
       </c>
       <c r="J24">
-        <v>1.03330166188591</v>
+        <v>1.004113325215181</v>
       </c>
       <c r="K24">
-        <v>1.037800902673928</v>
+        <v>1.015509031968037</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.044530438129427</v>
+        <v>1.012625804555187</v>
       </c>
       <c r="N24">
-        <v>1.01502542811824</v>
+        <v>1.004881275332359</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029026184616443</v>
+        <v>0.9860195833096383</v>
       </c>
       <c r="D25">
-        <v>1.035910237969554</v>
+        <v>1.009107766037465</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.043019575366228</v>
+        <v>1.00770904580671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031909105229971</v>
+        <v>1.038964911217592</v>
       </c>
       <c r="J25">
-        <v>1.034660081866403</v>
+        <v>1.011026781466181</v>
       </c>
       <c r="K25">
-        <v>1.038962420846856</v>
+        <v>1.021566321985994</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.046049587102269</v>
+        <v>1.020188855991672</v>
       </c>
       <c r="N25">
-        <v>1.015484736215876</v>
+        <v>1.007250050375399</v>
       </c>
     </row>
   </sheetData>
